--- a/Docu/Commands.xlsx
+++ b/Docu/Commands.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1243,18 +1243,18 @@
   </sheetPr>
   <dimension ref="1:92"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F105" activeCellId="0" sqref="F105"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="63.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.1785714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="62.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8519,6 +8519,7 @@
       <c r="E9" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
@@ -9550,6 +9551,7 @@
       <c r="E10" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
@@ -10581,6 +10583,7 @@
       <c r="E11" s="10" t="s">
         <v>35</v>
       </c>
+      <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
@@ -11612,6 +11615,7 @@
       <c r="E12" s="10" t="s">
         <v>38</v>
       </c>
+      <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
@@ -12643,6 +12647,7 @@
       <c r="E13" s="10" t="s">
         <v>41</v>
       </c>
+      <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
@@ -13674,6 +13679,7 @@
       <c r="E14" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -19865,6 +19871,7 @@
       <c r="E20" s="10" t="s">
         <v>62</v>
       </c>
+      <c r="F20" s="0"/>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -20896,6 +20903,7 @@
       <c r="E21" s="10" t="s">
         <v>65</v>
       </c>
+      <c r="F21" s="0"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
@@ -21927,6 +21935,7 @@
       <c r="E22" s="10" t="s">
         <v>68</v>
       </c>
+      <c r="F22" s="0"/>
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
@@ -22958,6 +22967,7 @@
       <c r="E23" s="10" t="s">
         <v>71</v>
       </c>
+      <c r="F23" s="0"/>
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
@@ -23989,6 +23999,7 @@
       <c r="E24" s="10" t="s">
         <v>74</v>
       </c>
+      <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
@@ -25020,6 +25031,7 @@
       <c r="E25" s="10" t="s">
         <v>77</v>
       </c>
+      <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
@@ -26051,6 +26063,7 @@
       <c r="E26" s="10" t="s">
         <v>80</v>
       </c>
+      <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
@@ -27082,6 +27095,7 @@
       <c r="E27" s="10" t="s">
         <v>83</v>
       </c>
+      <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
@@ -28113,6 +28127,7 @@
       <c r="E28" s="10" t="s">
         <v>86</v>
       </c>
+      <c r="F28" s="0"/>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
@@ -29144,6 +29159,7 @@
       <c r="E29" s="10" t="s">
         <v>89</v>
       </c>
+      <c r="F29" s="0"/>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
@@ -30175,6 +30191,7 @@
       <c r="E30" s="10" t="s">
         <v>92</v>
       </c>
+      <c r="F30" s="0"/>
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
       <c r="I30" s="0"/>
@@ -31206,6 +31223,7 @@
       <c r="E31" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
       <c r="I31" s="0"/>
@@ -32237,6 +32255,7 @@
       <c r="E32" s="10" t="s">
         <v>98</v>
       </c>
+      <c r="F32" s="0"/>
       <c r="G32" s="0"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
@@ -33268,6 +33287,7 @@
       <c r="E33" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0"/>
@@ -34299,6 +34319,7 @@
       <c r="E34" s="10" t="s">
         <v>103</v>
       </c>
+      <c r="F34" s="0"/>
       <c r="G34" s="0"/>
       <c r="H34" s="0"/>
       <c r="I34" s="0"/>
@@ -35330,6 +35351,7 @@
       <c r="E35" s="10" t="s">
         <v>106</v>
       </c>
+      <c r="F35" s="0"/>
       <c r="G35" s="0"/>
       <c r="H35" s="0"/>
       <c r="I35" s="0"/>
@@ -36361,6 +36383,7 @@
       <c r="E36" s="10" t="s">
         <v>109</v>
       </c>
+      <c r="F36" s="0"/>
       <c r="G36" s="0"/>
       <c r="H36" s="0"/>
       <c r="I36" s="0"/>
@@ -37392,6 +37415,7 @@
       <c r="E37" s="10" t="s">
         <v>112</v>
       </c>
+      <c r="F37" s="0"/>
       <c r="G37" s="0"/>
       <c r="H37" s="0"/>
       <c r="I37" s="0"/>
@@ -38423,6 +38447,7 @@
       <c r="E38" s="10" t="s">
         <v>115</v>
       </c>
+      <c r="F38" s="0"/>
       <c r="G38" s="0"/>
       <c r="H38" s="0"/>
       <c r="I38" s="0"/>
@@ -39454,6 +39479,7 @@
       <c r="E39" s="10" t="s">
         <v>118</v>
       </c>
+      <c r="F39" s="0"/>
       <c r="G39" s="0"/>
       <c r="H39" s="0"/>
       <c r="I39" s="0"/>
@@ -50939,7 +50965,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="59" s="3" customFormat="true" ht="52.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="52.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="s">
         <v>179</v>
       </c>
@@ -50957,7 +50983,7 @@
       </c>
       <c r="F59" s="8"/>
     </row>
-    <row r="60" s="3" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="13"/>
       <c r="B60" s="10" t="s">
         <v>183</v>
@@ -50971,7 +50997,7 @@
       </c>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" s="3" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="13"/>
       <c r="B61" s="10" t="s">
         <v>186</v>
@@ -50985,7 +51011,7 @@
       </c>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" s="3" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="13"/>
       <c r="B62" s="10" t="s">
         <v>189</v>
@@ -50999,7 +51025,7 @@
       </c>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" s="3" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
       <c r="B63" s="10" t="s">
         <v>192</v>
@@ -51013,7 +51039,7 @@
       </c>
       <c r="F63" s="8"/>
     </row>
-    <row r="64" s="3" customFormat="true" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="13"/>
       <c r="B64" s="10" t="s">
         <v>195</v>
@@ -51029,7 +51055,7 @@
       </c>
       <c r="F64" s="8"/>
     </row>
-    <row r="65" s="3" customFormat="true" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13"/>
       <c r="B65" s="10" t="s">
         <v>199</v>
@@ -51043,7 +51069,7 @@
       </c>
       <c r="F65" s="8"/>
     </row>
-    <row r="66" s="3" customFormat="true" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="13"/>
       <c r="B66" s="10" t="s">
         <v>202</v>
@@ -51059,7 +51085,7 @@
       </c>
       <c r="F66" s="8"/>
     </row>
-    <row r="67" s="3" customFormat="true" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13"/>
       <c r="B67" s="12" t="s">
         <v>206</v>
@@ -51073,7 +51099,7 @@
       </c>
       <c r="F67" s="8"/>
     </row>
-    <row r="68" s="3" customFormat="true" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="s">
         <v>209</v>
       </c>
@@ -51093,7 +51119,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" s="3" customFormat="true" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13"/>
       <c r="B69" s="10" t="s">
         <v>214</v>
@@ -51109,7 +51135,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="70" s="3" customFormat="true" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13"/>
       <c r="B70" s="12" t="s">
         <v>218</v>
@@ -51123,7 +51149,7 @@
       </c>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" s="3" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
         <v>221</v>
       </c>
@@ -51141,7 +51167,7 @@
       </c>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" s="3" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="9"/>
       <c r="B72" s="10" t="s">
         <v>225</v>
@@ -51498,10 +51524,10 @@
     <mergeCell ref="C91:C92"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.886111111111111" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="59" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddHeader/>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
